--- a/data/kg_queries.xlsx
+++ b/data/kg_queries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A1:AV71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,10 +551,125 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>Publication Type</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Source Title</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Article Number</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Document Type</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Publication Year</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Times Cited</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Total Times Cited</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Date Processed</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Accession Number</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Series Title</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Beginning Page</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Ending Page</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Conference Title</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Conference Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Conference Location</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Conference Sponsor</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Supplement</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Book Group Authors</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Author Keywords</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Group Authors</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Special Issue</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Editors</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>short_title</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>keywords</t>
         </is>
@@ -612,12 +727,35 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr">
         <is>
           <t>Large Language Model-Driven Knowledge Graph Construction in Sepsis Care Using Multicenter Clinical Databases: Development and Usability Study.</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>KG, graph, llm</t>
         </is>
@@ -679,12 +817,35 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr">
         <is>
           <t>Perplexity of utterances in untreated first-episode psychosis: an ultra-high field MRI dynamic causal modelling study of the semantic network.</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -746,12 +907,35 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr">
         <is>
           <t>Detecting emergencies in patient portal messages using large language models and knowledge graph-based retrieval-augmented generation.</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>KG, graph, llm, rag</t>
         </is>
@@ -809,12 +993,35 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr">
         <is>
           <t>Leveraging Medical Knowledge Graphs Into Large Language Models for Diagnosis Prediction: Design and Application Study.</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>KG, diag, domain, graph, llm, rag</t>
         </is>
@@ -872,12 +1079,35 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr">
         <is>
           <t>Applied machine learning in intelligent systems: knowledge graph-enhanced ophthalmic contrastive learning with "clinical profile" prompts.</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>KG, graph</t>
         </is>
@@ -935,12 +1165,35 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr">
         <is>
           <t>TCM-KLLaMA: Intelligent generation model for Traditional Chinese Medicine Prescriptions based on knowledge graph and large language model.</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AV7" t="inlineStr">
         <is>
           <t>KG, domain, graph, llm, osllm</t>
         </is>
@@ -994,12 +1247,35 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr">
         <is>
           <t>DruGNNosis-MoA: Elucidating Drug Mechanisms as Etiological or Palliative with Graph Neural Networks Employing a Large Language Model.</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>KG, graph, llm</t>
         </is>
@@ -1057,12 +1333,35 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr">
         <is>
           <t>Research on a traditional Chinese medicine case-based question-answering system integrating large language models and knowledge graphs.</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AV9" t="inlineStr">
         <is>
           <t>KG, domain, graph, llm, qa</t>
         </is>
@@ -1116,12 +1415,35 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr">
         <is>
           <t>Knowledge graph-based thought: a knowledge graph-enhanced LLM framework for pan-cancer question answering.</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AV10" t="inlineStr">
         <is>
           <t>KG, cancer, graph, llm, qa</t>
         </is>
@@ -1179,12 +1501,35 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr">
         <is>
           <t>An Automatic and End-to-End System for Rare Disease Knowledge Graph Construction Based on Ontology-Enhanced Large Language Models: Development Study.</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>KG, graph, llm</t>
         </is>
@@ -1262,12 +1607,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr">
         <is>
           <t>Applications of Large Models in Medicine</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>KG, diag, domain, graph, image, llm, mm, treatment, vlms</t>
         </is>
@@ -1341,12 +1709,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr">
         <is>
           <t>Enhancing LLM Generation with Knowledge Hypergraph for Evidence-Based   Medicine</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AV13" t="inlineStr">
         <is>
           <t>KG, decision support, domain, graph, hallucination, llm, neg, rag</t>
         </is>
@@ -1424,12 +1815,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr">
         <is>
           <t>Leveraging Medical Knowledge Graphs Into Large Language Models for   Diagnosis Prediction: Design and Application Study</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>KG, decision support, diag, domain, graph, llm, neg, ner, rag, treatment</t>
         </is>
@@ -1503,12 +1917,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr">
         <is>
           <t>Evaluating the Impact of Lab Test Results on Large Language Models   Generated Differential Diagnoses from Clinical Case Vignettes</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AV15" t="inlineStr">
         <is>
           <t>KG, cllm, diag, domain, eval, graph, llm, osllm</t>
         </is>
@@ -1582,12 +2019,35 @@
           <t>q-bio.QM</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr">
         <is>
           <t>Assessing the Utility of Large Language Models for Phenotype-Driven Gene   Prioritization in Rare Genetic Disorder Diagnosis</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AV16" t="inlineStr">
         <is>
           <t>KG, diag, eval, graph, llm, osllm</t>
         </is>
@@ -1661,12 +2121,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr">
         <is>
           <t>Tianyi: A Traditional Chinese Medicine all-rounder language model and   its Real-World Clinical Practice</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AV17" t="inlineStr">
         <is>
           <t>KG, decision support, diag, domain, eval, finetune, graph, hallucination, llm, qa, treatment</t>
         </is>
@@ -1740,12 +2223,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr">
         <is>
           <t>Language Models sounds the Death Knell of Knowledge Graphs</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AV18" t="inlineStr">
         <is>
           <t>KG, diag, domain, graph, llm, ner, nlp, qa</t>
         </is>
@@ -1819,12 +2325,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr">
         <is>
           <t>MedReason: Eliciting Factual Medical Reasoning Steps in LLMs via   Knowledge Graphs</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="AV19" t="inlineStr">
         <is>
           <t>KG, diag, domain, graph, llm, osllm, qa, treatment</t>
         </is>
@@ -1902,12 +2431,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr">
         <is>
           <t>Large Language Models for Biomedical Knowledge Graph Construction:   Information extraction from EMR notes</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="AV20" t="inlineStr">
         <is>
           <t>KG, domain, graph, llm, ner, treatment</t>
         </is>
@@ -1981,12 +2533,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr">
         <is>
           <t>Enabling Scalable Evaluation of Bias Patterns in Medical LLMs</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="AV21" t="inlineStr">
         <is>
           <t>KG, domain, eval, graph, llm, treatment</t>
         </is>
@@ -2060,12 +2635,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr">
         <is>
           <t>MedCT: A Clinical Terminology Graph for Generative AI Applications in   Healthcare</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="AV22" t="inlineStr">
         <is>
           <t>KG, decision support, diag, domain, graph, hallucination, llm, rag, treatment</t>
         </is>
@@ -2139,12 +2737,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr">
         <is>
           <t>MEG: Medical Knowledge-Augmented Large Language Models for Question   Answering</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AV23" t="inlineStr">
         <is>
           <t>KG, cllm, domain, graph, llm, qa, rag</t>
         </is>
@@ -2218,12 +2839,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr">
         <is>
           <t>Causal Graphs Meet Thoughts: Enhancing Complex Reasoning in   Graph-Augmented LLMs</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AV24" t="inlineStr">
         <is>
           <t>KG, domain, graph, hallucination, llm, qa, rag</t>
         </is>
@@ -2297,12 +2941,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr">
         <is>
           <t>Certifying Knowledge Comprehension in LLMs</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="AV25" t="inlineStr">
         <is>
           <t>KG, agents, domain, eval, graph, llm, qa</t>
         </is>
@@ -2376,12 +3043,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr">
         <is>
           <t>Qilin-Med: Multi-stage Knowledge Injection Advanced Medical Large   Language Model</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="AV26" t="inlineStr">
         <is>
           <t>KG, domain, graph, llm, qa, rag</t>
         </is>
@@ -2455,12 +3145,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr">
         <is>
           <t>KG-Rank: Enhancing Large Language Models for Medical QA with Knowledge   Graphs and Ranking Techniques</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="AV27" t="inlineStr">
         <is>
           <t>KG, domain, eval, graph, llm, qa, rag</t>
         </is>
@@ -2534,12 +3247,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr">
         <is>
           <t>MedG-KRP: Medical Graph Knowledge Representation Probing</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="AV28" t="inlineStr">
         <is>
           <t>KG, domain, graph, llm, osllm, qa, rev</t>
         </is>
@@ -2613,12 +3349,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr">
         <is>
           <t>TechGPT-2.0: A large language model project to solve the task of   knowledge graph construction</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="AV29" t="inlineStr">
         <is>
           <t>KG, domain, graph, hallucination, llm, ner, nlp</t>
         </is>
@@ -2692,12 +3451,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr">
         <is>
           <t>KG-TRACES: Enhancing Large Language Models with Knowledge   Graph-constrained Trajectory Reasoning and Attribution Supervision</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="AV30" t="inlineStr">
         <is>
           <t>KG, domain, graph, hallucination, llm, nlp</t>
         </is>
@@ -2771,12 +3553,35 @@
           <t>cs.LG</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr">
         <is>
           <t>Graph-MLLM: Harnessing Multimodal Large Language Models for Multimodal   Graph Learning</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="AV31" t="inlineStr">
         <is>
           <t>KG, eval, graph, image, llm, mm, rag</t>
         </is>
@@ -2850,12 +3655,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr">
         <is>
           <t>MedDiT: A Knowledge-Controlled Diffusion Transformer Framework for   Dynamic Medical Image Generation in Virtual Simulated Patient</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="AV32" t="inlineStr">
         <is>
           <t>KG, diag, domain, graph, hallucination, image, llm</t>
         </is>
@@ -2929,12 +3757,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr">
         <is>
           <t>Reasoning-Enhanced Healthcare Predictions with Knowledge Graph Community   Retrieval</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="AV33" t="inlineStr">
         <is>
           <t>KG, decision support, diag, domain, graph, hallucination, llm, rag</t>
         </is>
@@ -3008,12 +3859,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr">
         <is>
           <t>MedRAG: Enhancing Retrieval-augmented Generation with Knowledge   Graph-Elicited Reasoning for Healthcare Copilot</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="AV34" t="inlineStr">
         <is>
           <t>KG, decision support, diag, domain, graph, llm, neg, rag, treatment</t>
         </is>
@@ -3087,12 +3961,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr">
         <is>
           <t>A Review on Knowledge Graphs for Healthcare: Resources, Applications,   and Promises</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="AV35" t="inlineStr">
         <is>
           <t>KG, decision support, domain, graph, llm, rev, sur</t>
         </is>
@@ -3166,12 +4063,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr">
         <is>
           <t>A Smart Multimodal Healthcare Copilot with Powerful LLM Reasoning</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="AV36" t="inlineStr">
         <is>
           <t>KG, decision support, diag, domain, graph, llm, mm, rag, treatment</t>
         </is>
@@ -3245,12 +4165,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr">
         <is>
           <t>medIKAL: Integrating Knowledge Graphs as Assistants of LLMs for Enhanced   Clinical Diagnosis on EMRs</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="AV37" t="inlineStr">
         <is>
           <t>KG, diag, domain, graph, llm</t>
         </is>
@@ -3324,12 +4267,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr">
         <is>
           <t>Merging Clinical Knowledge into Large Language Models for Medical   Research and Applications: A Survey</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="AV38" t="inlineStr">
         <is>
           <t>KG, diag, domain, eval, graph, llm, sur, treatment</t>
         </is>
@@ -3403,12 +4369,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr">
         <is>
           <t>KG4Diagnosis: A Hierarchical Multi-Agent LLM Framework with Knowledge   Graph Enhancement for Medical Diagnosis</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="AV39" t="inlineStr">
         <is>
           <t>KG, agents, decision support, diag, domain, graph, llm</t>
         </is>
@@ -3482,12 +4471,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr">
         <is>
           <t>From Patient Consultations to Graphs: Leveraging LLMs for Patient   Journey Knowledge Graph Construction</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="AV40" t="inlineStr">
         <is>
           <t>KG, cllm, diag, domain, graph, llm, osllm, rag, treatment</t>
         </is>
@@ -3561,12 +4573,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr">
         <is>
           <t>BioMol-MQA: A Multi-Modal Question Answering Dataset For LLM Reasoning   Over Bio-Molecular Interactions</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="AV41" t="inlineStr">
         <is>
           <t>KG, graph, llm, mm, qa, rag</t>
         </is>
@@ -3640,12 +4675,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr">
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr">
         <is>
           <t>SPARQL Generation: an analysis on fine-tuning OpenLLaMA for Question   Answering over a Life Science Knowledge Graph</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="AV42" t="inlineStr">
         <is>
           <t>KG, graph, llm, nlp, osllm, qa, rag</t>
         </is>
@@ -3719,12 +4777,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr">
         <is>
           <t>AGENTiGraph: An Interactive Knowledge Graph Platform for LLM-based   Chatbots Utilizing Private Data</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="AV43" t="inlineStr">
         <is>
           <t>KG, chatbot, domain, graph, hallucination, llm, neg, qa</t>
         </is>
@@ -3798,12 +4879,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr">
         <is>
           <t>Mitigating Hallucinations in Large Language Models via   Self-Refinement-Enhanced Knowledge Retrieval</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="AV44" t="inlineStr">
         <is>
           <t>KG, domain, graph, hallucination, llm, neg, rag</t>
         </is>
@@ -3877,12 +4981,35 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X45" t="inlineStr">
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr">
         <is>
           <t>REALM: RAG-Driven Enhancement of Multimodal Electronic Health Records   Analysis via Large Language Models</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="AV45" t="inlineStr">
         <is>
           <t>KG, domain, graph, hallucination, llm, mm, rag</t>
         </is>
@@ -3960,12 +5087,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr">
         <is>
           <t>TrumorGPT: Graph-Based Retrieval-Augmented Large Language Model for   Fact-Checking</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="AV46" t="inlineStr">
         <is>
           <t>KG, domain, graph, hallucination, llm, rag</t>
         </is>
@@ -4039,12 +5189,35 @@
           <t>cs.LG</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" t="inlineStr">
         <is>
           <t>A Tripartite Perspective on GraphRAG</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="AV47" t="inlineStr">
         <is>
           <t>KG, domain, graph, llm, rag</t>
         </is>
@@ -4118,12 +5291,35 @@
           <t>cs.CL</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr">
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AU48" t="inlineStr">
         <is>
           <t>From Large Language Models to Knowledge Graphs for Biomarker Discovery   in Cancer</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="AV48" t="inlineStr">
         <is>
           <t>KG, cancer, decision support, diag, domain, finetune, graph, image, llm, qa, rag, treatment</t>
         </is>
@@ -4197,12 +5393,35 @@
           <t>cs.IR</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AU49" t="inlineStr">
         <is>
           <t>OpenTCM: A GraphRAG-Empowered LLM-based System for Traditional Chinese   Medicine Knowledge Retrieval and Diagnosis</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="AV49" t="inlineStr">
         <is>
           <t>KG, diag, domain, eval, graph, llm, neg, osllm, qa, rag</t>
         </is>
@@ -4280,14 +5499,2685 @@
           <t>cs.AI</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr">
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr"/>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AU50" t="inlineStr">
         <is>
           <t>CancerKG.ORG A Web-scale, Interactive, Verifiable Knowledge Graph-LLM   Hybrid for Assisting with Optimal Cancer Treatment and Care</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="AV50" t="inlineStr">
         <is>
           <t>KG, cancer, domain, graph, hallucination, llm, rag, rev, treatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>122</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Improving DietarySupplement Information Retrieval: Development of a Retrieval-Augmented Generation System With Large Language Models</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Background: Dietary supplements (DSs) are widely used to improve health and nutrition, but challenges related to misinformation, safety, and efficacy persist dueto less stringent regulations compared with pharmaceuticals. Accurate and reliable DS information is critical for both consumers and health care providers to make informed decisions. Objective: This study aimed to enhance DS-related question answering by integrating an advanced retrieval-augmented generation (RAG) system with the integrated Dietary Supplement Knowledgebase 2.0 (iDISK2.0), a dietary supplement knowledge base, to improve accuracy and reliability. Methods: We developed iDISK2.0 by integrating updated data from authoritative sources, including the Natural Medicines Comprehensive Database, the Memorial Sloan Kettering Cancer Center database, Dietary Supplement Label Database, and Licensed Natural Health Products Database, and applied advanced data cleaning and standardization techniques to reduce noise. The RAG system combined the retrieval power of a biomedical knowledge graph with the generative capabilities of large language models (LLMs) to address limitations of stand-alone LLMs, such as hallucination. The system retrieves contextually relevant subgraphs from iDISK2.0 based on user queries, enabling accurate and evidence-based responses through a user-friendly interface. We evaluated the system using true-or-false and multiple-choice questions derived from the Memorial Sloan Kettering Cancer Center database and compared its performance with stand-alone LLMs. Results: iDISK2.0 integrates 174,317 entitiesacross 7 categories, including 8091 dietary supplement ingredients; 163,806 dietary supplement products; 786 diseases; and 625 drugs, along with 6 types of relationships. The RAG system achieved an accuracy of 99% (990/1000) for true-or-false questions on DS effectiveness and 95% (948/100) for multiple-choice questions on DS-drug interactions, substantially outperforming stand-alone LLMs like GPT-4o (OpenAI), which scored 62% (618/1000) and 52% (517/1000) on these respective tasks. The user interface enabled efficient interaction, supporting free-form text input and providing accurate responses. Integration strategies minimized data noise, ensuring access to up-to-date, DS-related information. Conclusions:By integrating a robust knowledge graph with RAG and LLM technologies, iDISK2.0 addresses the critical limitations of stand-alone LLMs in DS information retrieval. This study highlights the importance of combining structured data with advanced artificial intelligence methods to improve accuracy and reduce misinformation in health care applications. Future work includes extending the framework to broader biomedical domains and improving evaluation with real-world, open-ended queries. ZR 0 ZA 0 Z8 0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>MAR 19 2025</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hou, Yu Bishop, Jeffrey R. Liu, Hongfang Zhang, Rui</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>"large language model" AND "cancer" AND "hallucination"</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>JOURNAL OF MEDICAL INTERNET RESEARCH</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>e67677 DI 10.2196/67677</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>1 ZS 0 ZB 0</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>WOS:001471226600004 PM 40106799 ER</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr">
+        <is>
+          <t>Improving DietarySupplement Information Retrieval: Development of a Retrieval-Augmented Generation System With Large Language Models</t>
+        </is>
+      </c>
+      <c r="AV51" t="inlineStr">
+        <is>
+          <t>KG, cancer, cllm, decision support, domain, eval, graph, hallucination, llm, qa, rag</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>212</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DrugFormer: Graph-Enhanced Language Model to Predict Drug Sensitivity</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Drug resistance poses a crucial challenge in healthcare, with response rates to chemotherapy and targeted therapy remaining low. Individual patient's resistance is exacerbated by the intricate heterogeneity of tumor cells, presenting significant obstacles to effective treatment. To address this challenge, DrugFormer, a novel graph-augmented large language model designed to predict drug resistance at single-cell level is proposed. DrugFormer integrates both serialized gene tokens and gene-based knowledge graphs for the accurate predictions of drug response. After training on comprehensive single-cell data with drug response information, DrugFormer model presents outperformance, with higher F1, precision, and recall in predicting drug response. Based on the scRNA-seq data from refractory multiple myeloma (MM) and acute myeloid leukemia (AML) patients, DrugFormer demonstrates high efficacy in identifying resistant cells and uncovering underlying molecular mechanisms. Through pseudotime trajectory analysisunique drug-resistant cellular states associated with poor patient outcomes are revealed. Furthermore, DrugFormer identifies potential therapeutic targets, such as COX8A, for overcoming drug resistance across different cancer types. In conclusion, DrugFormer represents a significant advancement in the field of drug resistance prediction, offering a powerful tool for unraveling the heterogeneity of cellular response to drugs and guiding personalized treatment strategies. DrugFormer, a novel graph-augmented language model, addresses the critical challenge of drug resistance in cancer treatment. By integrating serialized gene tokens and a gene-based knowledge graph, it provides accurate drug response predictions at the single-cell level. DrugFormer demonstrates superior performance and identifies resistant cells with potential therapeutic targets, offering a promising solution for personalized cancer therapy. image Z8 0 ZA 0 ZS 0 ZB 1 ZR 0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>OCT 2024</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Liu, Xiaona Wang, Qing Zhou, Minghao Wang, Yanfei Wang, Xuefeng Zhou, Xiaobo Song, Qianqian</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>40 DI 10.1002/advs.202405861 EA AUG 2024</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>"large language model" AND "cancer" AND "patient care"</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>ADVANCED SCIENCE</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>WOS:001300001500001 PM 39206872 ER</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AU52" t="inlineStr">
+        <is>
+          <t>DrugFormer: Graph-Enhanced Language Model to Predict Drug Sensitivity</t>
+        </is>
+      </c>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>KG, cancer, graph, image, llm, treatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>230</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Knowledge graph-based thought: a knowledge graph-enhanced LLM framework for pan-cancer question answering</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Background In recent years, large language models (LLMs) have shown promise in various domains, notably in biomedical sciences. However, their real-world application is often limited by issues like erroneous outputs and hallucinatory responses.Results We developed the knowledge graph-based thought (KGT) framework, an innovative solution that integrates LLMs with knowledge graphs (KGs) to improve their initial responses by utilizing verifiable information from KGs, thus significantly reducing factual errors in reasoning. The KGT framework demonstrates strong adaptability and performs well across various open-source LLMs. Notably, KGT can facilitate the discovery of new uses for existing drugs through potential drug-cancer associations and can assist in predicting resistance by analyzing relevant biomarkers and genetic mechanisms. To evaluate the knowledge graph question answering task within biomedicine, we utilize a pan-cancer knowledge graph to develop a pan-cancer question answering benchmark, named pan-cancer question answering.Conclusions The KGT framework substantially improves the accuracy and utility of LLMs in the biomedical field. This study serves as a proof of concept, demonstrating its exceptional performance in biomedical question answering. ZA 0 ZR 0 ZB 0 Z8 0 ZS 0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>JAN 6 2025</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Feng, Yichun Zhou, Lu Ma, Chao Zheng, Yikai He, Ruikun Li, Yixue</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>"large language model" AND "cancer" AND "question answering"</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>GIGASCIENCE</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>giae082 DI 10.1093/gigascience/giae082</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>WOS:001390058400001 PM 39775838 ER</t>
+        </is>
+      </c>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AU53" t="inlineStr">
+        <is>
+          <t>Knowledge graph-based thought: a knowledge graph-enhanced LLM framework for pan-cancer question answering</t>
+        </is>
+      </c>
+      <c r="AV53" t="inlineStr">
+        <is>
+          <t>KG, cancer, domain, graph, llm, qa</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>249</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CancerKG.ORG-A Web-scale, Interactive, Verifiable Knowledge Graph-LLM Hybrid for Assisting with Optimal Cancer Treatment and Care</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Here, we describe one of the first Web-scale hybrid Knowledge Graph (KG)-Large Language Model (LLM), populated with the latest peer-reviewed medical knowledge on colorectal Cancer. It is currently being evaluated to assist with both medical research and clinical information retrieval tasks at Moffitt Cancer Center, which is one of the top Cancer centers in the U.S. and in the world. Our hybrid is remarkable as it serves the user needs better than just an LLM, KG or a search-engine in isolation. LLMs as is are known to exhibit hallucinations and catastrophic forgetting as well as are trained on outdated corpora. The state of the art KGs, such as PrimeKG, cBioPortal, ChEMBL, NCBI, and other require manual curation, hence are quickly getting stale. CancerKG is unsupervised and is capable of automatically ingesting and organizing the latest medical findings. To alleviate the LLMs shortcomings, the verified KG serves as a Retrieval Augmented Generation (RAG) guardrail. CancerKG exhibits 5 different advanced user interfaces, each tailored to serve different data modalities better and more convenient for the user. We evaluated CancerKG on real user queries and report a high NDCG score on a large-scale corpora of approximately 44K publications.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Gubanov, Michael Pyayt, Anna Karolak, Aleksandra</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>"large language model" AND "cancer" AND "treatment"},</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>PROCEEDINGS OF THE 33RD ACM INTERNATIONAL CONFERENCE ON INFORMATION AND KNOWLEDGE MANAGEMENT, CIKM 2024</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>Proceedings Paper</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>2 ZS 0 ZR 0 ZA 0 ZB 2 Z8 0</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>WOS:001349579604110 ER</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr">
+        <is>
+          <t>4497</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>4505 DI 10.1145/3627673.3680094</t>
+        </is>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>33rd ACM International Conference on Information and Knowledge Management (CIKM)</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>OCT 21-25, 2024</t>
+        </is>
+      </c>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>Boise, ID</t>
+        </is>
+      </c>
+      <c r="AM54" t="inlineStr">
+        <is>
+          <t>Assoc Comp Machinery; ACM SIGIR; ACM SIGWEB</t>
+        </is>
+      </c>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr">
+        <is>
+          <t>CancerKG.ORG-A Web-scale, Interactive, Verifiable Knowledge Graph-LLM Hybrid for Assisting with Optimal Cancer Treatment and Care</t>
+        </is>
+      </c>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>KG, cancer, domain, graph, hallucination, llm, rag, rev, treatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>565</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FHIRViz: Multi-Agent Platform for FHIR Visualization to Advance Healthcare Analytics</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>The shift to electronic health records (EHRs) has enhanced patient care and research, but data sharing and complex clinical terminology remain challenges. The Fast Healthcare Interoperability Resource (FHIR) addresses interoperability issues, though extracting insights from FHIR data is still difficult. Traditional analytics often miss critical clinical context, and managing FHIR data requires advanced skills that are in short supply. This study presents FHIRViz, a novel analytics tool that integrates FHIR data with a semantic layer via a knowledge graph. It employs a large language model (LLM) system to extract insights and visualize them effectively. A retrieval vector store improves performance by saving successful generations for fine-tuning. FHIRViz translates clinical queries into actionable insights with high accuracy. Results show FHIRViz with GPT-4 achieving 92.62% accuracy, while Gemini 1.5 Pro reaches 89.34%, demonstrating the tool's potential in overcoming healthcare data analytics challenges.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ALMutairi, Mariam AlKulaib, Lulwah Wang, Shengkun Chen, Zhiqian ALMutairi, Youssif Alenazi, Thamer M. Luther, Kurt Lu, Chang-Tien</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>"large language model" AND "healthcare" AND "patient care"</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>15TH ACM CONFERENCE ON BIOINFORMATICS, COMPUTATIONAL BIOLOGY, AND HEALTH INFORMATICS, ACM-BCB 2024 DI 10.1145/3698587.3701392</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>Proceedings Paper</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>1 ZS 0 Z8 0 ZB 0 ZR 0</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>WOS:001430744700038 ER</t>
+        </is>
+      </c>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>15th Conference on Bioinformatics Computational Biology and Health Informatics</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>NOV 22-25, 2024</t>
+        </is>
+      </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>Shenzhen, PEOPLES R CHINA</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>Shenzhen Institute Of Advanced Technology; The Institution of Engineering and Technology ZA 0</t>
+        </is>
+      </c>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AU55" t="inlineStr">
+        <is>
+          <t>FHIRViz: Multi-Agent Platform for FHIR Visualization to Advance Healthcare Analytics</t>
+        </is>
+      </c>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>KG, cllm, graph, llm, patient care</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>583</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Enabling the Informed Patient Paradigm with Secure and Personalized Medical Question Answering</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Quality patient care is a complex and multifaceted problem requiring the integration of data from multiple sources. We propose Medicient, a knowledge-graph-based question answering system that processes heterogeneous data sources, including patient health records, drug databases, and medical literature, into a unified knowledge graph with zero training. The knowledge graph is then utilized to provide personalized recommendations for treatment or medication. The system leverages the power of large language models for question understanding and natural language response generation, while hiding sensitive patient information. We compare our system to a large language model (ChatGPT), which does not have access to patient health records, and show that our system provides better recommendations. This study contributes to a growing body of research on knowledge graphs and their applications in healthcare.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Oduro-Afriyie, Joel Jamil, Hasan M.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>"large language model" AND "healthcare" AND "patient care"</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>14TH ACM CONFERENCE ON BIOINFORMATICS, COMPUTATIONAL BIOLOGY, AND HEALTH INFORMATICS, BCB 2023 DI 10.1145/3584371.3613016</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>Proceedings Paper</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>2 ZB 0 ZS 0</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>WOS:001143941200033 ER</t>
+        </is>
+      </c>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>14th ACM Conference on Bioinformatics, Computational Biology, and Health Informatics (ACM-BCB)</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>SEP 03-06, 2023</t>
+        </is>
+      </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>Houston, TX</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>Assoc Comp Machinery; ACM Special Interest Grp Bioinformat, Computat Biol, &amp; Biomed Informat ZR 0 ZA 0 Z8 0</t>
+        </is>
+      </c>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="inlineStr"/>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AU56" t="inlineStr">
+        <is>
+          <t>Enabling the Informed Patient Paradigm with Secure and Personalized Medical Question Answering</t>
+        </is>
+      </c>
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>KG, cllm, domain, graph, llm, patient care, qa, rag, treatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>626</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Prompt robust large language model for Chinese medical named entity recognition</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Medical Named Entity Recognition (NER) is crucial for constructing healthcare knowledge graphs and enhancing intelligent medical systems, yet it faces three challenges: data scarcity, low recall in nested entities annotation and high prompt sensitivity of generative NER model. In this paper, we aim to address the three challenges simultaneously. First, we construct a Multi-Scenario Medical NER dataset which is the largest medical NER dataset, including over 40,000 samples and over 3400 entity types with eight major scenarios: medical web data, online consultation, medical book, etc. Second, we propose a decomposed question answering based data annotation and selection method, which improved F1 score by 6% compared to direct annotation. Third, to enhance the robustness of large models to diverse prompts in real-world scenarios, we construct diverse prompt templates and implements dynamic prompt strategy during the training phase. Finally, we conducted a comprehensive set of experiments, and the results demonstrate the effectiveness of our annotation method and robustness training approach. Notably, the proposed framework achieves a 5% performance improvement on the test set compared to conventional methods. Moreover, our method enables a 7B parameter model to surpass a 32B parameter model, highlighting its superior efficiency and capability. ZR 0 ZB 0 ZS 0 ZA 0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SEP 2025</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Chen, Yubo Zhang, Baoli Li, Sirui Jin, Zhuoran Cai, Zhengyuan Wang, Yingzheng Qiu, Delai Liu, ShengPing Zhao, Jun</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>"large language model" AND "healthcare" AND "question answering"</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>INFORMATION PROCESSING &amp; MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>104189 DI 10.1016/j.ipm.2025.104189 EA MAY 2025</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>0 Z8 0</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>WOS:001491579300001 ER</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="inlineStr">
+        <is>
+          <t>Prompt robust large language model for Chinese medical named entity recognition</t>
+        </is>
+      </c>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>KG, domain, graph, llm, ner, qa</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>630</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A Joint LLM-KG System for Disease Q&amp;A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Medical question answer (QA) assistants respond to lay users' health-related queries by synthesizing information from multiple sources using natural language processing and related techniques. They can serve as vital tools to alleviate issues of misinformation, information overload, and complexity of medical language, thus addressing lay users' information needs while reducing the burden on healthcare professionals. QA systems, the engines of such assistants, have often used large language models (LLMs) or knowledge graphs (KG), though the approaches could be complementary. LLM-based QA systems excel at understanding complex questions and providing well-formed answers but are prone to factual mistakes. KG-based QA systems, which represent facts well, are mostly limited to answering short-answer questions with pre-created templates. While a few studies have used both LLM and KG for text-based QA, the approaches are still prone to incomplete or inaccurate answers. Extant QA systems also have limitations in terms of automation and performance. We address these challenges by designing a novel, automated disease QA system named Disease Guru-Long-Form Question Answer (DG-LFQA), which effectively utilizes both LLM and KG techniques through a joint reasoning approach to answer disease-related questions appropriate for lay users. Our evaluation of the system using a range of quality metrics demonstrates its efficacy over related baseline systems. ZS 0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>MAR 2025</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Sukhwal, Prakash C. Rajan, Vaibhav Kankanhalli, Atreyi</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>"large language model" AND "healthcare" AND "question answering"</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>IEEE JOURNAL OF BIOMEDICAL AND HEALTH INFORMATICS</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>0 ZR 0 Z8 0 ZB 0 ZA 0</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>WOS:001440184500008 PM 40030566 ER</t>
+        </is>
+      </c>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>2257</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>2270 DI 10.1109/JBHI.2024.3514659</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="inlineStr"/>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AU58" t="inlineStr">
+        <is>
+          <t>A Joint LLM-KG System for Disease Q&amp;A</t>
+        </is>
+      </c>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>KG, domain, eval, graph, llm, nlp, qa</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>861</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TCMRD - KG: innovative design and development of rheumatology knowledge graph in ancient Chinese literature assisted by large language models</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Introduction Rheumatic immune diseases are a type of immune-inflammatory disease that affects muscles, bones, joints, and surrounding soft tissues. They have a long course and a high disability rate, seriously affecting the quality of life of patients. Traditional Chinese medicine plays an important role in the diagnosis and treatment of rheumatic immune diseases. The unique theoretical system and rich treatment methods of traditional Chinese medicine are preserved in ancient Chinese medical books.Methods This study takes the content related to rheumatism in ancient traditional Chinese medicine books as the research object, integrates ontology theory and technology into the knowledge graph, and realizes the reconstruction of traditional Chinese medicine information knowledge. It provides a basic data structure for data mining and knowledge discovery.Results This study is the first rheumatism-specific knowledge graph constructed based on ancient traditional Chinese medicine books. It has explored the construction method of a knowledge graph from ancient books by combining automatic labeling of mainstream large language models with manual review. Considering the knowledge characteristics of ancient traditional Chinese medicine books, where existing word segmentation technology struggles to accurately reproduce the original meaning, a new type of entity extraction method is proposed.Discussion This provides an important foundation for improving the clinical diagnosis and treatment level of traditional Chinese medicine in treating rheumatism, further exploring the knowledge representation and application of traditional Chinese medicine in rheumatism treatment, and it has potential for future expansion and improvement. ZS 0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>FEB 19 2025</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Li, Haotian Xia, Congmin Hou, Youjuan Hu, Sile Liu, Yanjun Jiang, Quan</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>"large language model" AND "medicine" AND "diagnosis"</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>FRONTIERS IN PHARMACOLOGY</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>1535596 DI 10.3389/fphar.2025.1535596</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>1 ZA 0 Z8 0 ZR 0 ZB 0</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>WOS:001436847300001 PM 40046747 ER</t>
+        </is>
+      </c>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="inlineStr"/>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AU59" t="inlineStr">
+        <is>
+          <t>TCMRD - KG: innovative design and development of rheumatology knowledge graph in ancient Chinese literature assisted by large language models</t>
+        </is>
+      </c>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>KG, diag, domain, graph, llm, rev, treatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>909</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PresRecRF: Herbal prescription recommendation via the representation fusion of large TCM semantics and molecular knowledge</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Background: Herbal prescription recommendation (HPR) is a hotspot in the research of clinical intelligent decision support. Recently plentiful HPR models based on deep neural networks have been proposed. Owing to insufficient data, e.g., lack of knowledge of molecular, TCM theory, and herbal dosage in HPR modeling, the existing models suffer from challenges, e.g., plain prediction precision, and are far from real-world clinics. Purpose: To address these problems, we proposed a novel herbal prescription recommendation model with the representation fusion of large TCM semantics and molecular knowledge (termed PresRecRF). Study Design and Methods: PresRecRF comprises three key modules. The representation learning module consists of two key components: a molecular knowledge representation component, integrating molecular knowledge into the herbsymptom-protein knowledge graph to enhance representations for herbs and symptoms; and a TCM knowledge representation component, leveraging BERT and ChatGPT to acquire TCM knowledge-enriched semantic representations. We introduced a representation fusion module to effectively merge molecular and TCM semantic representations. In the herb recommendation module, a multi-task objective loss is implemented to predict both herbs and dosages simultaneously. Results: The experimental results on two clinical datasets show that PresRecRF can achieve the optimal performance. Further analysis of ablation, hyper-parameters, and case studies indicate the effectiveness and reliability of the proposed model, suggesting that it can help precision medicine and treatment recommendations. Conclusion: The entire process of the proposed PresRecRF model closely mirrors the actual diagnosis and treatment procedures carried out by doctors, which are better applied in real clinical scenarios. The source codes of PresRecRF is available at https://github.com/2020MEAI/PresRecRF. ZR 0 ZS 0 ZA 0 Z8 0 ZB 0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>DEC 2024</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Yang, Kuo Dong, Xin Zhang, Shuhan Yu, Haibin Zhong, Liqun Zhang, Lei Zhao, He Hou, Yutong Song, Xinpeng Zhou, Xuezhong</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>"large language model" AND "medicine" AND "diagnosis"</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>PHYTOMEDICINE</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>156116 DI 10.1016/j.phymed.2024.156116 EA OCT 2024</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>WOS:001368283600001 PM 39396402 ER</t>
+        </is>
+      </c>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="inlineStr"/>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AU60" t="inlineStr">
+        <is>
+          <t>PresRecRF: Herbal prescription recommendation via the representation fusion of large TCM semantics and molecular knowledge</t>
+        </is>
+      </c>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>KG, cllm, decision support, diag, domain, graph, neg, rag, treatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>931</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Perplexity of utterances in untreated first-episode psychosis: an ultra-high field MRI dynamic causal modelling study of the semantic network</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Background: Psychosis involves a distortion of thought content, which is partly reflected in anomalous ways in which words are semantically connected into utterances in speech. We sought to explore how these linguistic anomalies are realized through putative circuit-level abnormalities in the brain's semantic network.Methods: Using a computational large-language model, Bidirectional Encoder Representations from Transformers (BERT), we quantified the contextual expectedness of a given word sequence (perplexity) across 180 samples obtained from descriptions of 3 pictures by patients with first-episode schizophrenia (FES) and controls matched for age, parental social status, and sex, scanned with 7 T ultra-high field functional magnetic resonance imaging (fMRI). Subsequently, perplexity was used to parametrize a spectral dynamic causal model (DCM) of the effective connectivity within (intrinsic) and between (extrinsic) 4 key regions of the semantic network at rest, namely the anterior temporal lobe, the inferior frontal gyrus (IFG), the posterior middle temporal gyrus (MTG), and the angular gyrus.Results: We included 60 participants, including 30 patients with FES and 30 controls. We observed higher perplexity in the FES group, indicating that speech was less predictable by the preceding context among patients. Results of Bayesian model comparisons showed that a DCM including the group by perplexity interaction best explained the underlying patterns of neural activity. We observed an increase of self-inhibitory effective connectivity within the IFG, as well as reduced self-inhibitory tone within the pMTG, in the FES group. An increase in self-inhibitory tone in the IFG correlated strongly and positively with inter-regional excitation between the IFG and posterior MTG, while self-inhibition of the posterior MTG was negatively correlated with this interregional excitation.Limitation: Our design did not address connectivity in the semantic network during tasks that selectively activated the semantic network, which could corroborate findings from this resting-state fMRI study. Furthermore, we do not present a replication study, which would ideally use speech in a different language.Conclusion: As an explanation for peculiar speech in psychosis, these results index a shift in the excitatory-inhibitory balance regulating information flow across the semantic network, confined to 2 regions that were previously linked specifically to the executive control of meaning. Based on our approach of combining a large language model with causal connectivity estimates, we propose loss in semantic control as a potential neurocognitive mechanism contributing to disorganization in psychosis.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>JUL-AUG 2024</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Alonso-Sanchez, Maria Francisca Hinzen, Wolfram He, Rui Gati, Joseph Palaniyappan, Lena</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>"large language model" AND "medicine" AND "diagnosis"</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>JOURNAL OF PSYCHIATRY &amp; NEUROSCIENCE</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>3 ZR 0 Z8 0 ZB 1 ZS 0 ZA 0</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>WOS:001288854500001 PM 39122409 ER</t>
+        </is>
+      </c>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>E252</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>E262 DI 10.1503/jpn.240031</t>
+        </is>
+      </c>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="inlineStr"/>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AU61" t="inlineStr">
+        <is>
+          <t>Perplexity of utterances in untreated first-episode psychosis: an ultra-high field MRI dynamic causal modelling study of the semantic network</t>
+        </is>
+      </c>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>KG, image, llm, speech</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>946</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>The Monarch Initiative in 2024: an analytic platform integrating phenotypes, genes and diseases across species</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Bridging the gap between genetic variations, environmental determinants, and phenotypic outcomes is critical for supporting clinical diagnosis and understanding mechanisms of diseases. It requires integrating open data at a global scale. The Monarch Initiative advances these goals by developing open ontologies, semantic data models, and knowledge graphs for translational research. The Monarch App is an integrated platform combining data about genes, phenotypes, and diseases across species. Monarch's APIs enable access to carefully curated datasets and advanced analysis tools that support the understanding and diagnosis of disease for diverse applications such as variant prioritization, deep phenotyping, and patient profile-matching. We have migrated our system into a scalable, cloud-based infrastructure; simplified Monarch's data ingestion and knowledge graph integration systems; enhanced data mapping and integration standards; and developed a new user interface with novel search and graph navigation features. Furthermore, we advanced Monarch's analytic tools by developing a customized plugin for OpenAI's ChatGPT to increase the reliability of its responses about phenotypic data, allowing us to interrogate the knowledge in the Monarch graph using state-of-the-art Large Language Models. The resources of the Monarch Initiative can be found at monarchinitiative.org and its corresponding code repository at github.com/monarch-initiative/monarch-app. Graphical Abstract ZA 0 ZR 0 ZS 0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NOV 24 2023</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Putman, Tim E. Schaper, Kevin Matentzoglu, Nicolas Rubinetti, Vincent P. Alquaddoomi, Faisal S. Cox, Corey Caufield, J. Harry Elsarboukh, Glass Gehrke, Sarah Hegde, Harshad Reese, Justin T. Braun, Ian Bruskiewich, Richard M. Cappelletti, Luca Carbon, Seth Caron, Anita R. Chan, Lauren E. Chute, Christopher G. Cortes, Katherina G. De Souza, Vinicius Fontana, Tommaso Harris, Nomi L. Hartley, Emily L. Hurwitz, Eric Jacobsen, Julius O. B. Krishnamurthy, Madan Laraway, Bryan J. McLaughlin, James A. McMurry, Julie A. Moxon, Sierra A. T. Mullen, Kathleen R. O'Neil, Shawn T. Shefchek, Kent A. Stefancsik, Ray Toro, Sabrina Vasilevsky, Nicole A. Walls, Ramona L. Whetzel, Patricia L. Osumi-Sutherland, David Smedley, Damian Robinson, Peter N. Mungall, Christopher J. Haendel, Melissa A. Munoz-Torres, Monica C.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>"large language model" AND "medicine" AND "diagnosis"</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>NUCLEIC ACIDS RESEARCH</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>20 Z8 0 ZB 9</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>WOS:001107819200001 PM 38000386 ER</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>D938</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>D949 DI 10.1093/nar/gkad1082 EA NOV 2023</t>
+        </is>
+      </c>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
+      <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="inlineStr"/>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AU62" t="inlineStr">
+        <is>
+          <t>The Monarch Initiative in 2024: an analytic platform integrating phenotypes, genes and diseases across species</t>
+        </is>
+      </c>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>KG, cllm, diag, graph, llm, neg</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>965</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Knowledge graphs in psychiatric research: Potential applications and future perspectives</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>BackgroundKnowledge graphs (KGs) remain an underutilized tool in the field of psychiatric research. In the broader biomedical field KGs are already a significant tool mainly used as knowledge database or for novel relation detection between biomedical entities. This review aims to outline how KGs would further research in the field of psychiatry in the age of Artificial Intelligence (AI) and Large Language Models (LLMs).MethodsWe conducted a thorough literature review across a spectrum of scientific fields ranging from computer science and knowledge engineering to bioinformatics. The literature reviewed was taken from PubMed, Semantic Scholar and Google Scholar searches including terms such as "Psychiatric Knowledge Graphs", "Biomedical Knowledge Graphs", "Knowledge Graph Machine Learning Applications", "Knowledge Graph Applications for Biomedical Sciences". The resulting publications were then assessed and accumulated in this review regarding their possible relevance to future psychiatric applications.ResultsA multitude of papers and applications of KGs in associated research fields that are yet to be utilized in psychiatric research was found and outlined in this review. We create a thorough recommendation for other computational researchers regarding use-cases of these KG applications in psychiatry.ConclusionThis review illustrates use-cases of KG-based research applications in biomedicine and beyond that may aid in elucidating the complex biology of psychiatric illness and open new routes for developing innovative interventions. We conclude that there is a wealth of opportunities for KG utilization in psychiatric research across a variety of application areas including biomarker discovery, patient stratification and personalized medicine approaches. ZR 0 ZB 0 ZA 0 Z8 0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>MAR 2025</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Freidel, Sebastian Schwarz, Emanuel</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>"large language model" AND "medicine" AND "diagnosis"</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>ACTA PSYCHIATRICA SCANDINAVICA</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>2 ZS 0</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>2024-06-22</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>WOS:001249217200001 PM 38886846 ER</t>
+        </is>
+      </c>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>191 DI 10.1111/acps.13717 EA JUN 2024</t>
+        </is>
+      </c>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
+      <c r="AO63" t="inlineStr"/>
+      <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="AS63" t="inlineStr"/>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AU63" t="inlineStr">
+        <is>
+          <t>Knowledge graphs in psychiatric research: Potential applications and future perspectives</t>
+        </is>
+      </c>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>KG, domain, graph, llm, rev</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>981</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Assessing the utility of large language models for phenotype-driven gene prioritization in the diagnosis of rare genetic disease</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Phenotype-driven gene prioritization is fundamental to diagnosing rare genetic disorders. While traditional approaches rely on curated knowledge graphs with phenotype-gene relations, recent advancements in large language models (LLMs) promise a streamlined text-to- gene solution. In this study, we evaluated five LLMs, including two generative pre-trained transformers (GPT) series and three Llama2 series, assessing their performance across task completeness, gene prediction accuracy, and adherence to required output structures. We conducted experiments, exploring various combinations of models, prompts, phenotypic input types, and task difficulty levels. Our findings revealed that the best-performed LLM, GPT-4, achieved an average accuracy of 17.0% in identifying diagnosed genes within the top 50 predictions, which still falls behind traditional tools. However, accuracy increased with the model size. Consistent results were observed over time, as shown in the dataset curated after 2023. Advanced techniques such as retrieval-augmented generation (RAG) and few-shot learning did not improve the accuracy. Sophisticated prompts were more likely to enhance task completeness, especially in smaller models. Conversely, complicated prompts tended to decrease output structure compliance rate. LLMs also achieved better-than-random prediction accuracy with free-text input, though performance was slightly lower than with standardized concept input. Bias analysis showed that highly cited genes, such as BRCA1, , TP53, , and PTEN, , are more likely to be predicted. Our study provides valuable insights into integrating LLMs with genomic analysis, contributing to the ongoing discussion on their utilization in clinical workflows. ZR 0 Z8 0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>OCT 3 2024</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Kim, Junyoung Wang, Kai Weng, Chunhua Liu, Cong</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>"large language model" AND "medicine" AND "diagnosis"</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>AMERICAN JOURNAL OF HUMAN GENETICS</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>1 ZS 0 ZA 0 ZB 1</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>WOS:001331490700001 PM 39255797 ER</t>
+        </is>
+      </c>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>2189</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>2202 DI 10.1016/j.ajhg.2024.08.010 EA OCT 2024</t>
+        </is>
+      </c>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AU64" t="inlineStr">
+        <is>
+          <t>Assessing the utility of large language models for phenotype-driven gene prioritization in the diagnosis of rare genetic disease</t>
+        </is>
+      </c>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>KG, diag, graph, llm, neg, osllm, rag</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>One-stop multi-sensor fusion and multimodal precise quantified traditional Chinese medicine imaging health examination technology</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Except for single-mode traditional Chinese medicine imaging techniques such as infrared thermal imaging, the one-stop multimodal whole-body imaging health examination technology and device is still blank. We focus on infrared thermal imaging as the main modality, integrated various modalities of medical imaging intelligent sensing agents such as terahertz imaging. The upper and lower computer and virtual instrument architecture are used, and the imaging data are collected by the lower computers that each is an intelligent sensing agent. The upper computer is used for image reconstruction with intelligent algorithms. Based on the core theory of traditional Chinese medicine, intelligent fusion imaging is achieved through various modalities to achieve the 'observation, hearing, questioning, and palpation' four diagnostic integration. We use fractional Fourier transform to filter imaging data, Laplacian pyramid for image fusion. We have proposed an implementation method and process for combining traditional Chinese medicine imaging large language model with knowledge graph, and based on deep learning, we have studied the image and report generation algorithm that combines traditional Chinese medicine pathology and four diagnostic methods with knowledge graph fusion, as well as the traditional Chinese medicine human physiological and pathological interpretation and evaluation system. We have achieved some results, and through further research and development, we can achieve commercial applications. ZA 0 Z8 0 ZB 0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>DEC 2024</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Li, Chuanxue Wang, Ping Zheng, Meifang Li, Wenxiang Zhou, Jun Fu, Lin</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>"large language model" AND "medicine" AND "imaging"</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>JOURNAL OF RADIATION RESEARCH AND APPLIED SCIENCES</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>101038 DI 10.1016/j.jrras.2024.101038 EA DEC 2024</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>2 ZR 0 ZS 0</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>WOS:001385575000001 ER</t>
+        </is>
+      </c>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AU65" t="inlineStr">
+        <is>
+          <t>One-stop multi-sensor fusion and multimodal precise quantified traditional Chinese medicine imaging health examination technology</t>
+        </is>
+      </c>
+      <c r="AV65" t="inlineStr">
+        <is>
+          <t>KG, agents, diag, domain, eval, graph, image, llm, mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1351</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Research on a traditional Chinese medicine case-based question-answering system integrating large language models and knowledge graphs</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Introduction Traditional Chinese Medicine (TCM) case records encapsulate vast clinical experiences and theoretical insights, holding significant research and practical value. However, traditional case studies face challenges such as large data volumes, complex information, and difficulties in efficient retrieval and analysis. This study aimed to address these issues by leveraging modern data techniques to improve access and analysis of TCM case records.Methods A total of 679 case records from Wang Zhongqi, a renowned physician of Xin'an Medicine, a branch of TCM, covering 41 diseases, were selected. The study involved four stages: pattern layer construction, knowledge extraction, integration, and data storage and visualization. A large language model (LLM) was employed to automatically extract key entities, including symptoms, pathogenesis, treatment principles, and prescriptions. These were structured into a TCM case knowledge graph.Results The LLM successfully identified and extracted relevant entities, which were then organized into relational triples. A TCM case query system based on natural language input was developed. The system's performance, evaluated using the RAGAS framework, achieved high scores: 0.9375 in faithfulness, 0.9686 in answer relevancy, and 0.9500 in context recall; In human evaluations, the levels of safety and usability are significantly higher than those of LLMs without using RAG.Discussion The results demonstrate that integrating LLMs with a knowledge graph significantly enhances the efficiency and accuracy of retrieving TCM case information. This approach could play a crucial role in modernizing TCM research and improving access to clinical insights. Future research may explore expanding the dataset and refining the query system for broader applications. ZR 0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>JAN 7 2025</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Duan, Yuchen Zhou, Qingqing Li, Yu Qin, Chi Wang, Ziyang Kan, Hongxing Hu, Jili</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>"large language model" AND "medicine" AND "question answering"</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>FRONTIERS IN MEDICINE</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>1512329 DI 10.3389/fmed.2024.1512329</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>1 Z8 0 ZS 0 ZB 0 ZA 0</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>WOS:001400611400001 PM 39839612 ER</t>
+        </is>
+      </c>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AU66" t="inlineStr">
+        <is>
+          <t>Research on a traditional Chinese medicine case-based question-answering system integrating large language models and knowledge graphs</t>
+        </is>
+      </c>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>KG, domain, eval, graph, llm, qa, rag, treatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1365</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>LlmRe: A zero-shot entity relation extraction method based on the large language model</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Entity relation extraction aims to extract knowledge triples from unstructured or semi-structured text data and can be applied to various fields, including medicine, finance knowledge graph construction and intelligent question-answering. Traditional entity relation extraction requires a large amount of labeled data, consumes a lot of labor and time, and the trained model lacks generalization ability, which is difficult to migrate to other fields. Zero-shot entity relation extraction relieves the dependence on labeled data in traditional method. Based on unlabeled text data, zero-shot entity relation extraction has strong domain adaptability, which is a very challenging and practical task. Recent work on large language models shows that large models can effectively complete downstream tasks through natural language instructions and have good generalization ability. Inspired by this, we explore the use of large models for information extraction. Due to the randomness of large language model generation, we introduce in-context learning in entity relation extraction task to guide large language model to output data in a specified format to help obtain structured data. At the same time, we propose a three-stage extraction framework for decomposing entity relation extraction tasks, and each stage is conducted in the form of question and answer to reduce the complexity of extraction. We evaluated the knowledge triples extraction performance of the model on three self-built test datasets in different fields, and the experimental result showed that our proposed method achieved impressive performance in the zero-shot entity relation extraction task, surpassing the comparison model on multiple metrics, proving the effectiveness and domain adaptability of the proposed method.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Zhao, Wei Chen, Qinghui You, Junling</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>"large language model" AND "medicine" AND "question answering"</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>PROCEEDINGS OF 2023 7TH INTERNATIONAL CONFERENCE ON ELECTRONIC INFORMATION TECHNOLOGY AND COMPUTER ENGINEERING, EITCE 2023</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>Proceedings Paper</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>0 ZA 0 ZS 0 ZB 0 Z8 0</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>WOS:001283896700078 ER</t>
+        </is>
+      </c>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>480 DI 10.1145/3650400.3650478</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>7th International Conference on Electronic Information Technology and Computer Engineering (EITCE)</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>OCT 20-22, 2023</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>Xiamen, PEOPLES R CHINA ZR 0</t>
+        </is>
+      </c>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr">
+        <is>
+          <t>ASSOC COMPUTING MACHINERY</t>
+        </is>
+      </c>
+      <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AU67" t="inlineStr">
+        <is>
+          <t>LlmRe: A zero-shot entity relation extraction method based on the large language model</t>
+        </is>
+      </c>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>KG, domain, graph, llm, neg, ner, qa</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Cross-modal embedding integrator for disease-gene/protein association prediction using a multi-head attention mechanism</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Knowledge graphs, powerful tools that explicitly transfer knowledge to machines, have significantly advanced new knowledge inferences. Discovering unknown relationships between diseases and genes/proteins in biomedical knowledge graphs can lead to the identification of disease development mechanisms and new treatment targets. Generating high-quality representations of biomedical entities is essential for successfully predicting disease-gene/protein associations. We developed a computational model that predicts disease-gene/protein associations using the Precision Medicine Knowledge Graph, a biomedical knowledge graph. Embeddings of biomedical entities were generated using two different methods-a large language model (LLM) and the knowledge graph embedding (KGE) algorithm. The LLM utilizes information obtained from massive amounts of text data, whereas the KGE algorithm relies on graph structures. We developed a disease-gene/protein association prediction model, "Cross-Modal Embedding Integrator (CMEI)," by integrating embeddings from different modalities using a multi-head attention mechanism. The area under the receiver operating characteristic curve of CMEI was 0.9662 (+/- 0.0002) in predicting disease-gene/protein associations. In conclusion, we developed a computational model that effectively predicts disease-gene/protein associations. CMEI may contribute to the identification of disease development mechanisms and new treatment targets. Z8 0 ZB 0 ZA 0 ZS 0 ZR 0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>DEC 2024</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Chang, Munyoung Ahn, Junyong Kang, Bong Gyun Yoon, Sungroh</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>"large language model" AND "medicine" AND "treatment"</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>PHARMACOLOGY RESEARCH &amp; PERSPECTIVES</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>e70034 DI 10.1002/prp2.70034</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>WOS:001368894600001 PM 39560053 ER</t>
+        </is>
+      </c>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
+      <c r="AP68" t="inlineStr"/>
+      <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="inlineStr"/>
+      <c r="AS68" t="inlineStr"/>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AU68" t="inlineStr">
+        <is>
+          <t>Cross-modal embedding integrator for disease-gene/protein association prediction using a multi-head attention mechanism</t>
+        </is>
+      </c>
+      <c r="AV68" t="inlineStr">
+        <is>
+          <t>KG, domain, graph, llm, treatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1603</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A BERT-GNN Approach for Metastatic Breast Cancer Prediction Using Histopathology Reports</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Metastatic breast cancer (MBC) continues to be a leading cause of cancer-related deaths among women. This work introduces an innovative non-invasive breast cancer classification model designed to improve the identification of cancer metastases. While this study marks the initial exploration into predicting MBC, additional investigations are essential to validate the occurrence of MBC. Our approach combines the strengths of large language models (LLMs), specifically the bidirectional encoder representations from transformers (BERT) model, with the powerful capabilities of graph neural networks (GNNs) to predict MBC patients based on their histopathology reports. This paper introduces a BERT-GNN approach for metastatic breast cancer prediction (BG-MBC) that integrates graph information derived from the BERT model. In this model, nodes are constructed from patient medical records, while BERT embeddings are employed to vectorise representations of the words in histopathology reports, thereby capturing semantic information crucial for classification by employing three distinct approaches (namely univariate selection, extra trees classifier for feature importance, and Shapley values to identify the features that have the most significant impact). Identifying the most crucial 30 features out of 676 generated as embeddings during model training, our model further enhances its predictive capabilities. The BG-MBC model achieves outstanding accuracy, with a detection rate of 0.98 and an area under curve (AUC) of 0.98, in identifying MBC patients. This remarkable performance is credited to the model's utilisation of attention scores generated by the LLM from histopathology reports, effectively capturing pertinent features for classification.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>JUL 2024</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Basaad, Abdullah Basurra, Shadi Vakaj, Edlira Eldaly, Ahmed Karam Abdelsamea, Mohammed M.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>"LLM" AND "cancer" AND "diagnosis"</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>DIAGNOSTICS</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>1365 DI 10.3390/diagnostics14131365</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>1 Z8 0 ZR 0 ZS 0 ZB 0 ZA 0</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>WOS:001269780300001 PM 39001255 ER</t>
+        </is>
+      </c>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
+      <c r="AO69" t="inlineStr"/>
+      <c r="AP69" t="inlineStr"/>
+      <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="inlineStr"/>
+      <c r="AS69" t="inlineStr"/>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AU69" t="inlineStr">
+        <is>
+          <t>A BERT-GNN Approach for Metastatic Breast Cancer Prediction Using Histopathology Reports</t>
+        </is>
+      </c>
+      <c r="AV69" t="inlineStr">
+        <is>
+          <t>KG, cancer, domain, graph, llm</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2467</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Quality-Controllable automatic construction method of Chinese knowledge graph for medical decision-making applications</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Medical Knowledge Graphs (KGs) store complex medical knowledge in a structured manner, increasingly becoming the foundation of medical artificial intelligence. They provide interpretable evidence for disease diagnosis and treatment, and enhance the accuracy and interpretability of medical information in large language models (LLMs), thus mitigating the hallucination issues. However, existing medical KGs lack diverse knowledge types, sufficient coverage, fine granularity, and high quality, resulting in low utilization rates. To address these issues, this paper, under the guidance of medical professionals, proposes guidelines and automated methods for constructing a Chinese medical KG, drawing from existing experience in building KGs and the requirements of medical decision systems. The construction principles include (1) universality and personalization, (2) comprehensiveness and granularity, (3) knowledge quality control. Furthermore, the automated construction method integrates a chain of thought-based knowledge mining approach and an axiom logic-based quality control module, which improves the scalability of mining and the quality of the knowledge. Based on these, a Chinese medical KG named WiMedKG has been developed. It meets the established construction guidelines by: (1) including both commonsense and experiential medical knowledge, (2) comprehensively covering 111 departments with content ranging from clinical practice to preventive medicine and rehabilitation treatments. The granularity of the knowledge is detailed, featuring 29 entity types, 128 refined relationship types, and 40 attribute types, comprising a total of 367,108 entities, 3,176,389 relational triples, and 1,021,966 attribute triples. (3) The knowledge has been validated and completed, receiving an evaluation score of 90.66% from medical professionals, which demonstrates the reliability of the quality-controlled automatic KG construction method. Finally, we constructed medical LLM WiMedLLM enhanced by WiMedKG. Experimental results on the medical test dataset show an average performance improvement of 1.51% after KG enhancement, demonstrating the necessity of KG construction and the effectiveness of the automatic construction method. The data and system resources can be found on our page: https://github.com/lx-hit/WiMedKG. Z8 0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>JUL 2025</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Li, Xue Yuan, Ye Yang, Yang Guan, Yi Wang, Haotian Jiang, Jingchi Shi, Huaizhang Liu, Xiguang</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>"LLM" AND "medicine" AND "diagnosis"</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>INFORMATION PROCESSING &amp; MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>104148 DI 10.1016/j.ipm.2025.104148 EA MAR 2025</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>0 ZB 0 ZS 0 ZA 0 ZR 0</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>WOS:001455489300001 ER</t>
+        </is>
+      </c>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
+      <c r="AO70" t="inlineStr"/>
+      <c r="AP70" t="inlineStr"/>
+      <c r="AQ70" t="inlineStr"/>
+      <c r="AR70" t="inlineStr"/>
+      <c r="AS70" t="inlineStr"/>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AU70" t="inlineStr">
+        <is>
+          <t>Quality-Controllable automatic construction method of Chinese knowledge graph for medical decision-making applications</t>
+        </is>
+      </c>
+      <c r="AV70" t="inlineStr">
+        <is>
+          <t>KG, decision support, diag, domain, eval, graph, hallucination, llm, neg, rag, treatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2546</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Augmented non-hallucinating large language models as medical information curators</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Reliably processing and interlinking medical information has been recognized as a critical foundation to the digital transformation of medical workflows, and despite the development of medical ontologies, the optimization of these has been a major bottleneck to digital medicine. The advent of large language models has brought great excitement, and maybe a solution to the medicines' 'communication problem' is in sight, but how can the known weaknesses of these models, such as hallucination and non-determinism, be tempered? Retrieval Augmented Generation, particularly through knowledge graphs, is an automated approach that can deliver structured reasoning and a model of truth alongside LLMs, relevant to information structuring and therefore also to decision support. ZA 0 Z8 0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>APR 23 2024</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Gilbert, Stephen Kather, Jakob Nikolas Hogan, Aidan</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>LLM" AND "medicine" AND "decision support"</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>NPJ DIGITAL MEDICINE</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>100 DI 10.1038/s41746-024-01081-0</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>3 ZB 0 ZR 0 ZS 0</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>WOS:001207216300001 ER</t>
+        </is>
+      </c>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
+      <c r="AO71" t="inlineStr"/>
+      <c r="AP71" t="inlineStr"/>
+      <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="inlineStr"/>
+      <c r="AS71" t="inlineStr"/>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AU71" t="inlineStr">
+        <is>
+          <t>Augmented non-hallucinating large language models as medical information curators</t>
+        </is>
+      </c>
+      <c r="AV71" t="inlineStr">
+        <is>
+          <t>KG, decision support, domain, graph, hallucination, llm, rag</t>
         </is>
       </c>
     </row>
